--- a/url_data/oil_data/U.S._Onshore_Crude_Oil_and_Natural_Gas_Rotary_Rigs_in_Operation.xlsx
+++ b/url_data/oil_data/U.S._Onshore_Crude_Oil_and_Natural_Gas_Rotary_Rigs_in_Operation.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\datta\Oil_production\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github_website\dattatele.github.io\url_data\oil_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,10 +21,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>Month</t>
+    <t>Oil</t>
   </si>
   <si>
-    <t>U.S. Onshore Crude Oil and Natural Gas Rotary Rigs in Operation Number of Elements</t>
+    <t>Date</t>
   </si>
 </sst>
 </file>
@@ -896,18 +896,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B523"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
